--- a/biology/Botanique/Batis_(plante)/Batis_(plante).xlsx
+++ b/biology/Botanique/Batis_(plante)/Batis_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Batis est un genre de plantes dicotylédones. Ce genre ne comprend qu'une ou deux espèces dont Batis maritima.
 Ce sont des plantes succulentes des rivages maritimes, halophiles, des zones tropicales, formant des buissons.
